--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H2">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N2">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q2">
-        <v>0.6619184059998889</v>
+        <v>0.054529702812</v>
       </c>
       <c r="R2">
-        <v>5.957265653999</v>
+        <v>0.490767325308</v>
       </c>
       <c r="S2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="T2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H3">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>72.700791</v>
       </c>
       <c r="O3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q3">
-        <v>12.18693860758367</v>
+        <v>1.212471480835333</v>
       </c>
       <c r="R3">
-        <v>109.682447468253</v>
+        <v>10.912243327518</v>
       </c>
       <c r="S3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="T3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H4">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N4">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q4">
-        <v>1.400250432529667</v>
+        <v>0.1409392034931111</v>
       </c>
       <c r="R4">
-        <v>12.602253892767</v>
+        <v>1.268452831438</v>
       </c>
       <c r="S4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="T4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H5">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N5">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q5">
-        <v>0.1184524017991111</v>
+        <v>0.03661447250355556</v>
       </c>
       <c r="R5">
-        <v>1.066071616192</v>
+        <v>0.329530252532</v>
       </c>
       <c r="S5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="T5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
     </row>
   </sheetData>
